--- a/biology/Zoologie/Actinopus_wallacei/Actinopus_wallacei.xlsx
+++ b/biology/Zoologie/Actinopus_wallacei/Actinopus_wallacei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Actinopus wallacei est une espèce d'araignées mygalomorphes de la famille des Actinopodidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Actinopus wallacei est une espèce d'araignées mygalomorphes de la famille des Actinopodidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Pará au Brésil[1],[2]. Elle se rencontre vers Santarém.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Pará au Brésil,. Elle se rencontre vers Santarém.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 25 mm[3].
-La femelle décrite par Sherwood, Ríos-Tamayo, Pett et Hinchcliffe en 2023 mesure 30,7 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 25 mm.
+La femelle décrite par Sherwood, Ríos-Tamayo, Pett et Hinchcliffe en 2023 mesure 30,7 mm.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par F. O. Pickard-Cambridge en 1896.
 </t>
@@ -605,9 +623,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de W. Wallace[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de W. Wallace.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>F. O. Pickard-Cambridge, 1896 : « On the Theraphosidae of the lower Amazons: being an account of the new genera and species of this group of spiders discovered during the expedition of the steamship "Faraday" up the river Amazons. » Proceedings of the Zoological Society of London, vol. 1896, p. 716-766 (texte intégral).</t>
         </is>
